--- a/cross_val.xlsx
+++ b/cross_val.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piotrcieslik/Documents/PycharmProjects/projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D47223-F8CC-1B48-B924-BD9D55011D6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A496EE-A8D5-904E-AA96-BCD107CF519F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" activeTab="1" xr2:uid="{F8DDC796-C0B6-474F-96E2-09E0C2980C64}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" activeTab="3" xr2:uid="{F8DDC796-C0B6-474F-96E2-09E0C2980C64}"/>
   </bookViews>
   <sheets>
     <sheet name="Config_files" sheetId="2" r:id="rId1"/>
     <sheet name="Cross_valid" sheetId="3" r:id="rId2"/>
     <sheet name="Empiric_test" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="61">
   <si>
     <t>Man00</t>
   </si>
@@ -208,6 +209,9 @@
   <si>
     <t>SNR 18</t>
   </si>
+  <si>
+    <t>SNR</t>
+  </si>
 </sst>
 </file>
 
@@ -272,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -288,6 +292,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E1B69-C61D-4647-9256-71FE04C77CE9}">
   <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="G88" zoomScale="91" workbookViewId="0">
+      <selection activeCell="V102" sqref="V102:W102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7123,8 +7129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E661D5F1-C9E1-EA44-8BF9-0F194AE6B962}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8:V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7671,4 +7677,192 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A8CBD2-E830-2547-91AF-693309878F26}">
+  <dimension ref="A2:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10">
+        <f>1-C3</f>
+        <v>0.624</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10">
+        <f t="shared" ref="B4:B5" si="0">1-C4</f>
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>12</v>
+      </c>
+      <c r="B5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.70700000000000007</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>18</v>
+      </c>
+      <c r="B6" s="10">
+        <f>1-C6</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.89600000000000024</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.10400000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>6</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.96299999999999986</v>
+      </c>
+      <c r="C10" s="10">
+        <v>3.7000000000000026E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.9890000000000001</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>18</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="C12" s="10">
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>0</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="C15" s="10">
+        <f>1-B15</f>
+        <v>0.10799999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.91099999999999992</v>
+      </c>
+      <c r="C16" s="10">
+        <f t="shared" ref="C16:C18" si="1">1-B16</f>
+        <v>8.9000000000000079E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>12</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.92699999999999994</v>
+      </c>
+      <c r="C17" s="10">
+        <f t="shared" si="1"/>
+        <v>7.3000000000000065E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>18</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.94700000000000029</v>
+      </c>
+      <c r="C18" s="10">
+        <f t="shared" si="1"/>
+        <v>5.2999999999999714E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>